--- a/normal-data.xlsx
+++ b/normal-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennajordan/Documents/GitHub/biostats-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8517A2E-ADD2-D64E-A371-94D27D7D05FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E64172-BB2E-6544-BFAA-A64B69F58DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26240" windowHeight="11760" xr2:uid="{273728FD-9B3E-FE4E-A4B3-606E45CF5CE7}"/>
   </bookViews>
@@ -80,12 +80,6 @@
     <t xml:space="preserve">CHANNELS </t>
   </si>
   <si>
-    <t xml:space="preserve">WEEK </t>
-  </si>
-  <si>
-    <t>WEEK (1,2,3, etc)</t>
-  </si>
-  <si>
     <t>start_peak_freq</t>
   </si>
   <si>
@@ -105,6 +99,12 @@
   </si>
   <si>
     <t>amplitude</t>
+  </si>
+  <si>
+    <t>week_number</t>
+  </si>
+  <si>
+    <t>week_letters</t>
   </si>
 </sst>
 </file>
@@ -277,9 +277,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -317,7 +317,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -423,7 +423,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -565,7 +565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -576,11 +576,12 @@
   <dimension ref="A1:M289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="2" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -590,10 +591,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>13</v>
@@ -608,25 +609,25 @@
         <v>10</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
